--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tFrink\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/maquinl_microsoft_com/Documents/Desktop/Source files/MS-4004_4005/ms-4004/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C958CD42-EEB9-4B13-AC6C-B7AB69739748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="2340" windowWidth="43935" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -512,16 +512,16 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45200</v>
       </c>
@@ -558,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45204</v>
       </c>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45210</v>
       </c>
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45221</v>
       </c>
@@ -609,7 +609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45218</v>
       </c>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45213</v>
       </c>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45203</v>
       </c>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45201</v>
       </c>
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45225</v>
       </c>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45227</v>
       </c>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45233</v>
       </c>
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45233</v>
       </c>
@@ -745,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45237</v>
       </c>
@@ -762,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45241</v>
       </c>
@@ -779,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45249</v>
       </c>
@@ -796,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45231</v>
       </c>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45260</v>
       </c>
@@ -830,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45233</v>
       </c>
@@ -847,7 +847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45254</v>
       </c>
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45252</v>
       </c>
@@ -881,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45250</v>
       </c>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45243</v>
       </c>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45248</v>
       </c>
@@ -932,7 +932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45248</v>
       </c>
@@ -949,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45264</v>
       </c>
@@ -966,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45268</v>
       </c>
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45277</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45272</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45283</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45279</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45262</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45269</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45277</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45270</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45269</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45294</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45306</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45304</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45312</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45310</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45313</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>45297</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>45305</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45311</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45305</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45297</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45328</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>45325</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45332</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>45333</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>45323</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>45323</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>45327</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>45330</v>
       </c>
@@ -1469,6 +1469,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>